--- a/Sample_TRS_DevMan_20181002.xlsx
+++ b/Sample_TRS_DevMan_20181002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLab\hr-tools\devman-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\devman-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -637,11 +637,15 @@
       <sz val="10"/>
       <color indexed="50"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -685,12 +689,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2091,6 +2097,16 @@
         <v>125</v>
       </c>
     </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+    </row>
   </sheetData>
   <sortState ref="N2:O773">
     <sortCondition ref="N1"/>
